--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 7/Projeto Turma 439 Parte 3.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 7/Projeto Turma 439 Parte 3.xlsx
@@ -16,6 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Contas a Receber'!$C$4:$O$30</definedName>
+    <definedName name="confirmacao_cp">'Contas a Pagar'!$J$5:$J$30</definedName>
+    <definedName name="mes_cp">'Contas a Pagar'!$L$5:$L$30</definedName>
+    <definedName name="plano_cp">'Contas a Pagar'!$G$5:$G$30</definedName>
+    <definedName name="valor_cp">'Contas a Pagar'!$I$5:$I$30</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -508,19 +512,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -765,90 +777,102 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="0"/>
@@ -876,6 +900,40 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1067,6 +1125,42 @@
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>168</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1150,6 +1244,42 @@
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1926,8 +2056,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4105276" y="758383"/>
-          <a:ext cx="2647950" cy="938428"/>
+          <a:off x="4120093" y="764733"/>
+          <a:ext cx="2669116" cy="933136"/>
           <a:chOff x="7315201" y="2996758"/>
           <a:chExt cx="2647950" cy="938428"/>
         </a:xfrm>
@@ -2050,7 +2180,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>R$ 435</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="2800" b="1">
               <a:solidFill>
@@ -2168,233 +2298,219 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>172811</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="Agrupar 12">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CC9926-AFA4-4ABF-8309-133A4D042449}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD52FFF-17F3-448B-B352-1F5ECEEBA941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1943101" y="767908"/>
           <a:ext cx="2647950" cy="938428"/>
-          <a:chOff x="7315201" y="2996758"/>
-          <a:chExt cx="2647950" cy="938428"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="Imagem 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD52FFF-17F3-448B-B352-1F5ECEEBA941}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="7315201" y="2996758"/>
-            <a:ext cx="2647950" cy="938428"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320484</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>184536</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$P$5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CaixaDeTexto 14">
           <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3896C3C-A74C-4077-AC6F-26C15D33FA42}"/>
             </a:ext>
           </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="$P$5">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="CaixaDeTexto 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3896C3C-A74C-4077-AC6F-26C15D33FA42}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="8130984" y="3329449"/>
-            <a:ext cx="1083252" cy="452562"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2758884" y="1100599"/>
+          <a:ext cx="1083252" cy="452562"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{865BF98F-80CB-49CC-96E8-17AB01B0DD62}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:fld id="{865BF98F-80CB-49CC-96E8-17AB01B0DD62}" type="TxLink">
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t> </a:t>
-            </a:fld>
-            <a:endParaRPr lang="pt-BR" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="CaixaDeTexto 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE1D7BB-A647-487C-BBBC-39D2A0D80E7C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="7977188" y="3155387"/>
-            <a:ext cx="1410903" cy="229762"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
+            <a:t>R$ 405</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>116912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>358391</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CaixaDeTexto 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE1D7BB-A647-487C-BBBC-39D2A0D80E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2605088" y="926537"/>
+          <a:ext cx="1410903" cy="229762"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:rPr>
-              <a:t>Total</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:rPr>
-              <a:t> Pago</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="85000"/>
@@ -2403,11 +2519,35 @@
               </a:solidFill>
               <a:latin typeface="Arial"/>
               <a:cs typeface="Arial"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            </a:rPr>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t> Pago</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2436,8 +2576,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6419851" y="815533"/>
-          <a:ext cx="2647950" cy="938428"/>
+          <a:off x="6451601" y="820825"/>
+          <a:ext cx="2664883" cy="933136"/>
           <a:chOff x="7315201" y="2996758"/>
           <a:chExt cx="2647950" cy="938428"/>
         </a:xfrm>
@@ -2560,7 +2700,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>26</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="4800" b="1">
               <a:solidFill>
@@ -2704,8 +2844,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4191001" y="2187133"/>
-          <a:ext cx="2647950" cy="938428"/>
+          <a:off x="4205818" y="2185016"/>
+          <a:ext cx="2669116" cy="933137"/>
           <a:chOff x="7315201" y="2996758"/>
           <a:chExt cx="2647950" cy="938428"/>
         </a:xfrm>
@@ -2828,7 +2968,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>R$ 510</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="4400" b="1">
               <a:solidFill>
@@ -2959,8 +3099,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1971676" y="2177608"/>
-          <a:ext cx="2647950" cy="938428"/>
+          <a:off x="1973793" y="2175491"/>
+          <a:ext cx="2664883" cy="933137"/>
           <a:chOff x="7315201" y="2996758"/>
           <a:chExt cx="2647950" cy="938428"/>
         </a:xfrm>
@@ -3083,7 +3223,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>R$ 814</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="4800" b="1">
               <a:solidFill>
@@ -3214,8 +3354,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6410326" y="2187133"/>
-          <a:ext cx="2647950" cy="938428"/>
+          <a:off x="6442076" y="2185016"/>
+          <a:ext cx="2664883" cy="933137"/>
           <a:chOff x="7315201" y="2996758"/>
           <a:chExt cx="2647950" cy="938428"/>
         </a:xfrm>
@@ -3338,7 +3478,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>R$ 409</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="2400" b="1">
               <a:solidFill>
@@ -7171,13 +7311,10 @@
   <sheetPr>
     <tabColor rgb="FF4F81BD"/>
   </sheetPr>
-  <dimension ref="C1:P20"/>
+  <dimension ref="C1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7190,269 +7327,311 @@
     <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="3:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+    <row r="1" spans="3:17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="3:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="C2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="3:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="32" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="3:17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="3:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="35"/>
       <c r="O5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
+      <c r="P5" s="42">
+        <f>SUMIF(confirmacao_cp,"S",valor_cp)</f>
+        <v>405</v>
+      </c>
+      <c r="Q5" s="5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(P5)</f>
+        <v>=SOMASE(confirmacao_cp;"S";valor_cp)</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="35"/>
       <c r="O6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="P6" s="42">
+        <f>SUMIF(confirmacao_cp,"",valor_cp)</f>
+        <v>435</v>
+      </c>
+      <c r="Q6" s="5" t="str">
+        <f t="shared" ref="Q6:Q10" ca="1" si="0">_xlfn.FORMULATEXT(P6)</f>
+        <v>=SOMASE(confirmacao_cp;"";valor_cp)</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35"/>
       <c r="O7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
+      <c r="P7" s="42">
+        <f>SUMIF('Contas a Receber'!$K$5:$K$30,"S",'Contas a Receber'!$J$5:$J$30)</f>
+        <v>814</v>
+      </c>
+      <c r="Q7" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SOMASE('Contas a Receber'!$K$5:$K$30;"S";'Contas a Receber'!$J$5:$J$30)</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
       <c r="O8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
-      <c r="O9" s="24" t="s">
+      <c r="P8" s="42">
+        <f>SUMIF('Contas a Receber'!$K$5:$K$30,"",'Contas a Receber'!$J$5:$J$30)</f>
+        <v>510</v>
+      </c>
+      <c r="Q8" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SOMASE('Contas a Receber'!$K$5:$K$30;"";'Contas a Receber'!$J$5:$J$30)</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
+      <c r="O9" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
+      <c r="P9" s="6">
+        <f>COUNTA('Contas a Receber'!E5:E30)</f>
+        <v>26</v>
+      </c>
+      <c r="Q9" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=CONT.VALORES('Contas a Receber'!E5:E30)</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
       <c r="O10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-    </row>
-    <row r="12" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-    </row>
-    <row r="13" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-    </row>
-    <row r="14" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
+      <c r="P10" s="7">
+        <f>P7-P5</f>
+        <v>409</v>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=P7-P5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7471,10 +7650,10 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5:K15"/>
+      <selection pane="bottomRight" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7494,33 +7673,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
+      <c r="A1" s="41"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="C2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="A2" s="41"/>
+      <c r="C2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="1:17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="41"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="41"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -7556,7 +7735,7 @@
       <c r="K5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="23">
         <v>15</v>
       </c>
     </row>
@@ -7576,7 +7755,7 @@
       <c r="K6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="23">
         <v>20</v>
       </c>
     </row>
@@ -7596,7 +7775,7 @@
       <c r="K7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="23">
         <v>60</v>
       </c>
     </row>
@@ -7616,7 +7795,7 @@
       <c r="K8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="23">
         <v>55</v>
       </c>
     </row>
@@ -7636,7 +7815,7 @@
       <c r="K9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="23">
         <v>95</v>
       </c>
     </row>
@@ -7656,7 +7835,7 @@
       <c r="K10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="23">
         <v>40</v>
       </c>
     </row>
@@ -7667,7 +7846,7 @@
       <c r="K11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="23">
         <v>18</v>
       </c>
     </row>
@@ -7678,7 +7857,7 @@
       <c r="K12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="23">
         <v>120</v>
       </c>
     </row>
@@ -7689,7 +7868,7 @@
       <c r="K13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="23">
         <v>48</v>
       </c>
     </row>
@@ -7700,7 +7879,7 @@
       <c r="K14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="23">
         <v>75</v>
       </c>
     </row>
@@ -7711,7 +7890,7 @@
       <c r="K15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="23">
         <v>12</v>
       </c>
     </row>
@@ -7753,11 +7932,8 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7781,21 +7957,21 @@
   <sheetData>
     <row r="1" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7861,16 +8037,28 @@
       <c r="I5" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="18"/>
+      <c r="J5" s="19">
+        <f>VLOOKUP(E5,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="K5" s="18" t="str">
+        <f>IF(ISBLANK(N5)&lt;&gt;TRUE,"S","")</f>
+        <v>S</v>
+      </c>
       <c r="L5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="18"/>
+      <c r="M5" s="18" t="str">
+        <f>IF(N5="","",TEXT(N5,"mmm"))</f>
+        <v>jun</v>
+      </c>
       <c r="N5" s="16">
         <v>42903</v>
       </c>
-      <c r="O5" s="16"/>
+      <c r="O5" s="16" t="str">
+        <f ca="1">IF(ISBLANK(C5)=TRUE,"",IF(K5&lt;&gt;"S",IF(C5-TODAY()&lt;0,"Vencido há "&amp;(C5-TODAY())*-1&amp;" Dias",IF(C5-TODAY()&lt;7,"Próximo do Recebimento "&amp;C5-TODAY()&amp;" Dias para receber"," A Receber")),"Recebido"))</f>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="16">
@@ -7894,16 +8082,28 @@
       <c r="I6" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="19">
+        <f>VLOOKUP(E6,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="K6" s="18" t="str">
+        <f>IF(ISBLANK(N6),"","S")</f>
+        <v>S</v>
+      </c>
       <c r="L6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="18"/>
+      <c r="M6" s="18" t="str">
+        <f t="shared" ref="M6:M30" si="0">IF(N6="","",TEXT(N6,"mmm"))</f>
+        <v>jan</v>
+      </c>
       <c r="N6" s="16">
         <v>42736</v>
       </c>
-      <c r="O6" s="16"/>
+      <c r="O6" s="16" t="str">
+        <f t="shared" ref="O6:O30" ca="1" si="1">IF(ISBLANK(C6)=TRUE,"",IF(K6&lt;&gt;"S",IF(C6-TODAY()&lt;0,"Vencido há "&amp;(C6-TODAY())*-1&amp;" Dias",IF(C6-TODAY()&lt;7,"Próximo do Recebimento "&amp;C6-TODAY()&amp;" Dias para receber"," A Receber")),"Recebido"))</f>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="16">
@@ -7927,16 +8127,28 @@
       <c r="I7" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="19">
+        <f>VLOOKUP(E7,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K7" s="18" t="str">
+        <f>IF(N7="","","S")</f>
+        <v>S</v>
+      </c>
       <c r="L7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="18"/>
+      <c r="M7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
       <c r="N7" s="16">
         <v>42903</v>
       </c>
-      <c r="O7" s="16"/>
+      <c r="O7" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="16">
@@ -7960,16 +8172,28 @@
       <c r="I8" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="18"/>
+      <c r="J8" s="19">
+        <f>VLOOKUP(E8,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="K8" s="18" t="str">
+        <f t="shared" ref="K8:K30" si="2">IF(N8="","","S")</f>
+        <v>S</v>
+      </c>
       <c r="L8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="18"/>
+      <c r="M8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
       <c r="N8" s="16">
         <v>42903</v>
       </c>
-      <c r="O8" s="16"/>
+      <c r="O8" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="16">
@@ -7993,16 +8217,28 @@
       <c r="I9" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="19">
+        <f>VLOOKUP(E9,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="K9" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="18"/>
+      <c r="M9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
       <c r="N9" s="16">
         <v>42903</v>
       </c>
-      <c r="O9" s="16"/>
+      <c r="O9" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="16">
@@ -8026,16 +8262,28 @@
       <c r="I10" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="18"/>
+      <c r="J10" s="19">
+        <f>VLOOKUP(E10,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="K10" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="18"/>
+      <c r="M10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
       <c r="N10" s="16">
         <v>42903</v>
       </c>
-      <c r="O10" s="16"/>
+      <c r="O10" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="16">
@@ -8059,16 +8307,28 @@
       <c r="I11" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="18"/>
+      <c r="J11" s="19">
+        <f>VLOOKUP(E11,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="K11" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="18"/>
+      <c r="M11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
       <c r="N11" s="16">
         <v>42903</v>
       </c>
-      <c r="O11" s="16"/>
+      <c r="O11" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
@@ -8093,16 +8353,28 @@
       <c r="I12" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="18"/>
+      <c r="J12" s="19">
+        <f>VLOOKUP(E12,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="K12" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L12" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="18"/>
+      <c r="M12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
       <c r="N12" s="16">
         <v>42903</v>
       </c>
-      <c r="O12" s="16"/>
+      <c r="O12" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="16">
@@ -8126,16 +8398,28 @@
       <c r="I13" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="18"/>
+      <c r="J13" s="19">
+        <f>VLOOKUP(E13,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="K13" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="18"/>
+      <c r="M13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
       <c r="N13" s="16">
         <v>42903</v>
       </c>
-      <c r="O13" s="16"/>
+      <c r="O13" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="16">
@@ -8159,16 +8443,28 @@
       <c r="I14" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="18"/>
+      <c r="J14" s="19">
+        <f>VLOOKUP(E14,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K14" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="18"/>
+      <c r="M14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
       <c r="N14" s="16">
         <v>42903</v>
       </c>
-      <c r="O14" s="16"/>
+      <c r="O14" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="16">
@@ -8192,16 +8488,28 @@
       <c r="I15" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="18"/>
+      <c r="J15" s="19">
+        <f>VLOOKUP(E15,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="K15" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="18"/>
+      <c r="M15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jul</v>
+      </c>
       <c r="N15" s="16">
         <v>42936</v>
       </c>
-      <c r="O15" s="16"/>
+      <c r="O15" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="16">
@@ -8225,16 +8533,28 @@
       <c r="I16" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="18"/>
+      <c r="J16" s="19">
+        <f>VLOOKUP(E16,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="K16" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="18"/>
+      <c r="M16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jul</v>
+      </c>
       <c r="N16" s="16">
         <v>42936</v>
       </c>
-      <c r="O16" s="16"/>
+      <c r="O16" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="17" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="16">
@@ -8258,16 +8578,28 @@
       <c r="I17" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="18"/>
+      <c r="J17" s="19">
+        <f>VLOOKUP(E17,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="K17" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="18"/>
+      <c r="M17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jul</v>
+      </c>
       <c r="N17" s="16">
         <v>42936</v>
       </c>
-      <c r="O17" s="16"/>
+      <c r="O17" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="16">
@@ -8291,16 +8623,28 @@
       <c r="I18" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="19">
+        <f>VLOOKUP(E18,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="K18" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="18"/>
+      <c r="M18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
       <c r="N18" s="16">
         <v>42903</v>
       </c>
-      <c r="O18" s="16"/>
+      <c r="O18" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="16">
@@ -8324,16 +8668,28 @@
       <c r="I19" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="19">
+        <f>VLOOKUP(E19,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="K19" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="18"/>
+      <c r="M19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>dez</v>
+      </c>
       <c r="N19" s="16">
         <v>43081</v>
       </c>
-      <c r="O19" s="16"/>
+      <c r="O19" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="16">
@@ -8357,16 +8713,28 @@
       <c r="I20" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="19">
+        <f>VLOOKUP(E20,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>48</v>
+      </c>
+      <c r="K20" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L20" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="M20" s="18"/>
+      <c r="M20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>dez</v>
+      </c>
       <c r="N20" s="16">
         <v>43081</v>
       </c>
-      <c r="O20" s="16"/>
+      <c r="O20" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="21" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="16">
@@ -8390,14 +8758,26 @@
       <c r="I21" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="19">
+        <f>VLOOKUP(E21,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="K21" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="18"/>
+      <c r="M21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="O21" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido há 25 Dias</v>
+      </c>
     </row>
     <row r="22" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="16">
@@ -8421,14 +8801,26 @@
       <c r="I22" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="18"/>
+      <c r="J22" s="19">
+        <f>VLOOKUP(E22,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K22" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="18"/>
+      <c r="M22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+      <c r="O22" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vencido há 74 Dias</v>
+      </c>
     </row>
     <row r="23" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="16">
@@ -8452,14 +8844,26 @@
       <c r="I23" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="18"/>
+      <c r="J23" s="19">
+        <f>VLOOKUP(E23,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="K23" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="18"/>
+      <c r="M23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="O23" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve"> A Receber</v>
+      </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="16">
@@ -8483,14 +8887,26 @@
       <c r="I24" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="18"/>
+      <c r="J24" s="19">
+        <f>VLOOKUP(E24,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="K24" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L24" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="M24" s="18"/>
+      <c r="M24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
+      <c r="O24" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Próximo do Recebimento 3 Dias para receber</v>
+      </c>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="16">
@@ -8514,16 +8930,28 @@
       <c r="I25" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="19">
+        <f>VLOOKUP(E25,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="K25" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>S</v>
+      </c>
       <c r="L25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="18"/>
+      <c r="M25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jun</v>
+      </c>
       <c r="N25" s="16">
         <v>42903</v>
       </c>
-      <c r="O25" s="16"/>
+      <c r="O25" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Recebido</v>
+      </c>
     </row>
     <row r="26" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="16">
@@ -8547,14 +8975,26 @@
       <c r="I26" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="18"/>
+      <c r="J26" s="19">
+        <f>VLOOKUP(E26,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="K26" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="18"/>
+      <c r="M26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
+      <c r="O26" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve"> A Receber</v>
+      </c>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="16">
@@ -8578,14 +9018,26 @@
       <c r="I27" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="18"/>
+      <c r="J27" s="19">
+        <f>VLOOKUP(E27,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="K27" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="18"/>
+      <c r="M27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
+      <c r="O27" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve"> A Receber</v>
+      </c>
     </row>
     <row r="28" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="16">
@@ -8609,14 +9061,26 @@
       <c r="I28" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="18"/>
+      <c r="J28" s="19">
+        <f>VLOOKUP(E28,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>48</v>
+      </c>
+      <c r="K28" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="18"/>
+      <c r="M28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
+      <c r="O28" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve"> A Receber</v>
+      </c>
     </row>
     <row r="29" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="16">
@@ -8640,19 +9104,29 @@
       <c r="I29" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="18"/>
+      <c r="J29" s="19">
+        <f>VLOOKUP(E29,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="K29" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L29" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="M29" s="18"/>
+      <c r="M29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
+      <c r="O29" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve"> A Receber</v>
+      </c>
     </row>
     <row r="30" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="16">
-        <v>43082</v>
-      </c>
+      <c r="C30" s="16"/>
       <c r="D30" s="17" t="s">
         <v>91</v>
       </c>
@@ -8671,19 +9145,47 @@
       <c r="I30" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="18"/>
+      <c r="J30" s="19">
+        <f>VLOOKUP(E30,Configurações!$K$5:$L$15,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K30" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="18"/>
+      <c r="M30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="O30" s="16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C4:O30"/>
   <mergeCells count="1">
     <mergeCell ref="C2:O2"/>
   </mergeCells>
+  <conditionalFormatting sqref="O5:O30">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Recebido"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O30">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Próximo">
+      <formula>NOT(ISERROR(SEARCH("Próximo",O5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O30">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Vencido">
+      <formula>NOT(ISERROR(SEARCH("Vencido",O5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8722,10 +9224,10 @@
   <dimension ref="C1:N30"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8748,20 +9250,20 @@
   <sheetData>
     <row r="1" spans="3:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
     </row>
     <row r="3" spans="3:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8821,7 +9323,7 @@
       <c r="H5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="21">
         <v>34</v>
       </c>
       <c r="J5" s="18" t="str">
@@ -9488,7 +9990,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A Pagar</v>
+        <v>Proximo do Vencimento, faltam 6 Dias</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9894,11 +10396,8 @@
   </sheetPr>
   <dimension ref="C1:P61"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9912,22 +10411,22 @@
   <sheetData>
     <row r="1" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10018,415 +10517,1312 @@
       <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="38"/>
+      <c r="D6" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C6,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!D$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C6,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!E$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C6,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!F$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C6,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!G$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C6,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!H$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C6,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!I$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>78</v>
+      </c>
+      <c r="J6" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C6,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!J$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C6,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!K$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C6,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!L$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C6,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!M$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C6,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!N$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C6,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!O$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="27">
+        <f>SUM(D6:O6)</f>
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="38"/>
+      <c r="D7" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C7,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!D$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C7,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!E$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C7,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!F$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C7,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!G$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C7,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!H$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C7,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!I$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>18</v>
+      </c>
+      <c r="J7" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C7,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!J$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>55</v>
+      </c>
+      <c r="K7" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C7,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!K$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C7,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!L$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C7,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!M$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C7,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!N$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C7,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!O$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>120</v>
+      </c>
+      <c r="P7" s="27">
+        <f t="shared" ref="P7:P28" si="0">SUM(D7:O7)</f>
+        <v>193</v>
+      </c>
     </row>
     <row r="8" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="38"/>
+      <c r="D8" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C8,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!D$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C8,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!E$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C8,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!F$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C8,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!G$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C8,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!H$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C8,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!I$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>15</v>
+      </c>
+      <c r="J8" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C8,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!J$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>95</v>
+      </c>
+      <c r="K8" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C8,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!K$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C8,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!L$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C8,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!M$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C8,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!N$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C8,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!O$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>48</v>
+      </c>
+      <c r="P8" s="27">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="9" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="38"/>
+      <c r="D9" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C9,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!D$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C9,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!E$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C9,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!F$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C9,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!G$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C9,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!H$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C9,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!I$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>60</v>
+      </c>
+      <c r="J9" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C9,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!J$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>40</v>
+      </c>
+      <c r="K9" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C9,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!K$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C9,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!L$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C9,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!M$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C9,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!N$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C9,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!O$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="27">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="38"/>
+      <c r="D10" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C10,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!D$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C10,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!E$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C10,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!F$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C10,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!G$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C10,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!H$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C10,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!I$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>170</v>
+      </c>
+      <c r="J10" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C10,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!J$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C10,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!K$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C10,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!L$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C10,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!M$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C10,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!N$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C10,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!O$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="27">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
     </row>
     <row r="11" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="38"/>
+      <c r="D11" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C11,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!D$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C11,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!E$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C11,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!F$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C11,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!G$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C11,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!H$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C11,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!I$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>95</v>
+      </c>
+      <c r="J11" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C11,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!J$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C11,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!K$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C11,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!L$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C11,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!M$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C11,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!N$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="20">
+        <f>SUMIFS('Contas a Receber'!$J$5:$J$30,'Contas a Receber'!$H$5:$H$30,GRÁFICOS!$C11,'Contas a Receber'!$M$5:$M$30,GRÁFICOS!O$4,'Contas a Receber'!$K$5:$K$30,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="27">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="12" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
+      <c r="D12" s="27">
+        <f>SUM(D6:D11)</f>
+        <v>20</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" ref="E12:P12" si="1">SUM(E6:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="1"/>
+        <v>436</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="K12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="27">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="P12" s="27">
+        <f t="shared" si="1"/>
+        <v>814</v>
+      </c>
     </row>
     <row r="13" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="38"/>
+      <c r="D13" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C13,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>34</v>
+      </c>
+      <c r="E13" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C13,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>20</v>
+      </c>
+      <c r="F13" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C13,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>43</v>
+      </c>
+      <c r="G13" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C13,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C13,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C13,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C13,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C13,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C13,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C13,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C13,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C13,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="27">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
     </row>
     <row r="14" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="38"/>
+      <c r="D14" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C14,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>31</v>
+      </c>
+      <c r="E14" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C14,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>39</v>
+      </c>
+      <c r="F14" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C14,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>45</v>
+      </c>
+      <c r="G14" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C14,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C14,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C14,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C14,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C14,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C14,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C14,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C14,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C14,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="27">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="15" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="38"/>
+      <c r="D15" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C15,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>21</v>
+      </c>
+      <c r="E15" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C15,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C15,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>24</v>
+      </c>
+      <c r="G15" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C15,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C15,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>33</v>
+      </c>
+      <c r="I15" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C15,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C15,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C15,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C15,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C15,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C15,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C15,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="27">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="38"/>
+      <c r="D16" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C16,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C16,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>23</v>
+      </c>
+      <c r="F16" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C16,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C16,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>24</v>
+      </c>
+      <c r="H16" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C16,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C16,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>40</v>
+      </c>
+      <c r="J16" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C16,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C16,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C16,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C16,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C16,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C16,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="27">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="17" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="38"/>
+      <c r="D17" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C17,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C17,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>28</v>
+      </c>
+      <c r="F17" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C17,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C17,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C17,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C17,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C17,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C17,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C17,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C17,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C17,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C17,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="27">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="38"/>
+      <c r="D18" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C18,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C18,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C18,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C18,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C18,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C18,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C18,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C18,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C18,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C18,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C18,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C18,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="38"/>
+      <c r="D19" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C19,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C19,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C19,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C19,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C19,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C19,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C19,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C19,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C19,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C19,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C19,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C19,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="38"/>
+      <c r="D20" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C20,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C20,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C20,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C20,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C20,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C20,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C20,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C20,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C20,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C20,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C20,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C20,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="38"/>
+      <c r="D21" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C21,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C21,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C21,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C21,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C21,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C21,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C21,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C21,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C21,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C21,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C21,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C21,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="38"/>
+      <c r="D22" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C22,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C22,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C22,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C22,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C22,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C22,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C22,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C22,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C22,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C22,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C22,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C22,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="38"/>
+      <c r="D23" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C23,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C23,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C23,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C23,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C23,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C23,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C23,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C23,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C23,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C23,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C23,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C23,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="38"/>
+      <c r="D24" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C24,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C24,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C24,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C24,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C24,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C24,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C24,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C24,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C24,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C24,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C24,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C24,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="38"/>
+      <c r="D25" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C25,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C25,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C25,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C25,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C25,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C25,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C25,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C25,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C25,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C25,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C25,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C25,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="38"/>
+      <c r="D26" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C26,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C26,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C26,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C26,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C26,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C26,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C26,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C26,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C26,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C26,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C26,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C26,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="38"/>
+      <c r="D27" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C27,mes_cp,D$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C27,mes_cp,E$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C27,mes_cp,F$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C27,mes_cp,G$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C27,mes_cp,H$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C27,mes_cp,I$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C27,mes_cp,J$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C27,mes_cp,K$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C27,mes_cp,L$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C27,mes_cp,M$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C27,mes_cp,N$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="20">
+        <f>SUMIFS(valor_cp,plano_cp,$C27,mes_cp,O$4,confirmacao_cp,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
+      <c r="D28" s="27">
+        <f>SUM(D13:D27)</f>
+        <v>86</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" ref="E28:P28" si="2">SUM(E13:E27)</f>
+        <v>110</v>
+      </c>
+      <c r="F28" s="27">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="G28" s="27">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H28" s="27">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="27">
+        <f t="shared" si="2"/>
+        <v>405</v>
+      </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="8"/>
@@ -10446,10 +11842,10 @@
     </row>
     <row r="49" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="25" t="s">
         <v>157</v>
       </c>
     </row>
@@ -10540,7 +11936,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10554,22 +11950,22 @@
   <sheetData>
     <row r="1" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="3:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10596,7 +11992,9 @@
       <c r="C5" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="30">
+        <v>25000</v>
+      </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -10614,7 +12012,9 @@
       <c r="C6" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="31">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
@@ -10632,7 +12032,9 @@
       <c r="C7" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="32">
+        <v>36</v>
+      </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -10650,7 +12052,10 @@
       <c r="C8" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="28">
+        <f>PMT(D6,D7,D5)</f>
+        <v>-903.80988839792099</v>
+      </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
@@ -10668,7 +12073,10 @@
       <c r="C9" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="29">
+        <f>D7*D8</f>
+        <v>-32537.155982325155</v>
+      </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
